--- a/src/main/java/com/excel/lib/util/LeadLayoutInputs.xlsx
+++ b/src/main/java/com/excel/lib/util/LeadLayoutInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash Sharma\Desktop\selenium\eclipse-jee-mars-2-win32-x86_64\eclipse\AppiumCRMpocAI\src\main\java\com\excel\lib\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1123AFD7-7AFB-4A38-BCC9-56205FF848F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F747E-3519-461D-AC89-C54D960C68F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3E93CA21-6B72-42BA-94F3-A5BDA5B02548}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/excel/lib/util/LeadLayoutInputs.xlsx
+++ b/src/main/java/com/excel/lib/util/LeadLayoutInputs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akash Sharma\Desktop\selenium\eclipse-jee-mars-2-win32-x86_64\eclipse\AppiumCRMpocAI\src\main\java\com\excel\lib\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A27CA35-FFC5-429C-B50C-AB7532D45B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB879BC5-7E7D-4DBE-9FF9-00F4C3A34824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3E93CA21-6B72-42BA-94F3-A5BDA5B02548}"/>
   </bookViews>
   <sheets>
     <sheet name="LeadLayout" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Task" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Field</t>
   </si>
@@ -55,31 +56,49 @@
     <t>Product</t>
   </si>
   <si>
-    <t>TATA</t>
-  </si>
-  <si>
     <t>Akash</t>
   </si>
   <si>
-    <t>Jessi</t>
-  </si>
-  <si>
-    <t>Abc%123</t>
-  </si>
-  <si>
-    <t>acidqa_</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
     <t>Passward</t>
   </si>
   <si>
-    <t>Apple@123</t>
-  </si>
-  <si>
-    <t>A001</t>
+    <t>Apple_qa</t>
+  </si>
+  <si>
+    <t>Valid username invalid pass</t>
+  </si>
+  <si>
+    <t>acid_Qa</t>
+  </si>
+  <si>
+    <t>Amit123</t>
+  </si>
+  <si>
+    <t>Invalid user valid pass</t>
+  </si>
+  <si>
+    <t>Valid username valid pass</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write Operation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Related Items Appointment </t>
+  </si>
+  <si>
+    <t>related Task</t>
+  </si>
+  <si>
+    <t>start date</t>
+  </si>
+  <si>
+    <t>end date</t>
   </si>
 </sst>
 </file>
@@ -133,13 +152,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -455,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA07D96-1AF6-4407-9C27-68A9D34CA859}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,25 +486,33 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -492,7 +520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -500,12 +528,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -516,55 +544,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB5EC7F-34C0-4CD8-9311-E0F6995B1A1F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1626E800-E9F5-4AC3-A82C-1887EC1277BD}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
+      <c r="A1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44540</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{DDE9CF02-54E2-4AE6-8888-EADF9431D45B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>